--- a/moneos_2020_test/tabellen/070_Macrobenthos_tabellen.xlsx
+++ b/moneos_2020_test/tabellen/070_Macrobenthos_tabellen.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="27795" windowHeight="12600"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="27795" windowHeight="12600" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="staalnamelocaties" sheetId="1" r:id="rId1"/>
-    <sheet name="Blad2" sheetId="2" r:id="rId2"/>
+    <sheet name="ecotopenkaarten" sheetId="2" r:id="rId2"/>
     <sheet name="Blad3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="26">
   <si>
     <t>hoog</t>
   </si>
@@ -76,6 +76,24 @@
   </si>
   <si>
     <t>(all)</t>
+  </si>
+  <si>
+    <t>benthoscampagne</t>
+  </si>
+  <si>
+    <t>gebied</t>
+  </si>
+  <si>
+    <t>ecotopenkaart</t>
+  </si>
+  <si>
+    <t>Zeeschelde IV &amp; III (partim OMES 13)</t>
+  </si>
+  <si>
+    <t>Zeeschelde III (partim OMES 14), II &amp; I</t>
+  </si>
+  <si>
+    <t>Durme &amp; Rupel</t>
   </si>
 </sst>
 </file>
@@ -416,7 +434,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
@@ -818,12 +836,274 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A7:C34"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2008</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2009</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2010</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>2011</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>2012</v>
+      </c>
+      <c r="B20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>2013</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>2014</v>
+      </c>
+      <c r="B26" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>2015</v>
+      </c>
+      <c r="B29" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>2016</v>
+      </c>
+      <c r="B32" t="s">
+        <v>23</v>
+      </c>
+      <c r="C32">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>24</v>
+      </c>
+      <c r="C33">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>25</v>
+      </c>
+      <c r="C34">
+        <v>2016</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
